--- a/Test Plan - BasicTest.xlsx
+++ b/Test Plan - BasicTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cp338102\TestCafe-Testing\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B982CA3-442B-4F47-9F19-52856BFB135F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C9479-0907-440E-9E8F-89D87B1E1A22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="2340" windowWidth="24225" windowHeight="13920" xr2:uid="{A8235499-4FC7-4247-AA89-1A306F340C79}"/>
+    <workbookView xWindow="4575" yWindow="1680" windowWidth="24225" windowHeight="13920" xr2:uid="{A8235499-4FC7-4247-AA89-1A306F340C79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,15 +103,16 @@
     <t>Enter Test Data - My First TestCafe test</t>
   </si>
   <si>
-    <t>1) Insert Name 
+    <t>Name to show in message.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>1) Use web resource -  https://devexpress.github.io/testcafe/example/
+2) Insert Name 
 2) Click submit button
 3) Verify Name in message</t>
-  </si>
-  <si>
-    <t>Name to show in message.</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -222,13 +223,13 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,14 +547,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -563,19 +564,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -614,13 +615,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -634,26 +635,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
